--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.05883093758</v>
+        <v>6556464.707356577</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.05883093758</v>
+        <v>6556464.707356577</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812086327</v>
+        <v>596804.7795186344</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812086327</v>
+        <v>596804.7795186344</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036346668.514482</v>
+        <v>42792511.58685374</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9674.033008813891</v>
+        <v>1052692.920604021</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18125.07624479671</v>
+        <v>1902772.422828522</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26576.11948077951</v>
+        <v>2752851.925053024</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35469.23576185819</v>
+        <v>3574649.595185483</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44362.35204293686</v>
+        <v>4396447.265317941</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52925.62774857261</v>
+        <v>5246555.539533204</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61488.75887134021</v>
+        <v>6096635.041757702</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70051.88999410781</v>
+        <v>6946714.5439822</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78781.97056913031</v>
+        <v>7767086.984074012</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87540.70481792872</v>
+        <v>8593161.505247582</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96132.4896144768</v>
+        <v>9448943.088553755</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104695.6207372476</v>
+        <v>10299022.59077826</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113258.7518600185</v>
+        <v>11149102.09300277</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122151.7235582271</v>
+        <v>11970870.99114455</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131044.8398393058</v>
+        <v>12792668.66127702</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>214.000000000347</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>2.99596363699741e-11</v>
